--- a/PhanCongViecCacTuan.xlsx
+++ b/PhanCongViecCacTuan.xlsx
@@ -544,39 +544,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,12 +566,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,8 +577,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:F49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,14 +945,14 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -965,19 +965,19 @@
       <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="44"/>
+      <c r="E5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -990,10 +990,10 @@
       <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="39">
         <v>10</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1006,10 +1006,10 @@
       <c r="D8" s="17">
         <v>20</v>
       </c>
-      <c r="E8" s="45">
-        <v>20</v>
-      </c>
-      <c r="F8" s="45"/>
+      <c r="E8" s="39">
+        <v>20</v>
+      </c>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1022,10 +1022,10 @@
       <c r="D9" s="17">
         <v>30</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="39">
         <v>30</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1036,19 +1036,19 @@
         <v>21</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="45">
-        <v>20</v>
-      </c>
-      <c r="F10" s="45"/>
+      <c r="E10" s="39">
+        <v>5</v>
+      </c>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1061,10 +1061,10 @@
       <c r="D12" s="19">
         <v>45</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="35">
         <v>45</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1077,10 +1077,10 @@
       <c r="D13" s="19">
         <v>20</v>
       </c>
-      <c r="E13" s="42">
-        <v>20</v>
-      </c>
-      <c r="F13" s="42"/>
+      <c r="E13" s="35">
+        <v>20</v>
+      </c>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1093,10 +1093,10 @@
       <c r="D14" s="19">
         <v>20</v>
       </c>
-      <c r="E14" s="42">
-        <v>20</v>
-      </c>
-      <c r="F14" s="42"/>
+      <c r="E14" s="35">
+        <v>20</v>
+      </c>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1109,10 +1109,10 @@
       <c r="D15" s="19">
         <v>20</v>
       </c>
-      <c r="E15" s="42">
-        <v>20</v>
-      </c>
-      <c r="F15" s="42"/>
+      <c r="E15" s="35">
+        <v>20</v>
+      </c>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -1120,11 +1120,11 @@
       <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="33">
-        <v>30</v>
-      </c>
-      <c r="F16" s="33"/>
+      <c r="D16" s="19">
+        <v>60</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1135,10 +1135,10 @@
       <c r="D17" s="19">
         <v>20</v>
       </c>
-      <c r="E17" s="33">
-        <v>20</v>
-      </c>
-      <c r="F17" s="33"/>
+      <c r="E17" s="36">
+        <v>20</v>
+      </c>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1147,10 +1147,10 @@
         <v>36</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="33">
-        <v>30</v>
-      </c>
-      <c r="F18" s="33"/>
+      <c r="E18" s="36">
+        <v>20</v>
+      </c>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
@@ -1162,10 +1162,10 @@
       <c r="D19" s="25">
         <v>10</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="35">
         <v>10</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
@@ -1175,18 +1175,18 @@
         <v>21</v>
       </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="42">
-        <v>20</v>
-      </c>
-      <c r="F20" s="42"/>
+      <c r="E20" s="35">
+        <v>5</v>
+      </c>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
@@ -1198,10 +1198,10 @@
       <c r="D22" s="20">
         <v>20</v>
       </c>
-      <c r="E22" s="34">
-        <v>20</v>
-      </c>
-      <c r="F22" s="34"/>
+      <c r="E22" s="48">
+        <v>20</v>
+      </c>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
@@ -1211,10 +1211,10 @@
       <c r="D23" s="20">
         <v>10</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="48">
         <v>10</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -1224,10 +1224,10 @@
         <v>26</v>
       </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="41">
+      <c r="E24" s="51">
         <v>30</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
@@ -1237,19 +1237,19 @@
         <v>21</v>
       </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="34">
-        <v>20</v>
-      </c>
-      <c r="F25" s="34"/>
+      <c r="E25" s="48">
+        <v>5</v>
+      </c>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,10 +1263,10 @@
       <c r="D27" s="20">
         <v>10</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="50">
         <v>10</v>
       </c>
-      <c r="F27" s="40"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -1277,10 +1277,10 @@
         <v>30</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="40">
+      <c r="E28" s="50">
         <v>5</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -1289,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="15">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -1303,19 +1303,19 @@
         <v>21</v>
       </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="40">
-        <v>20</v>
-      </c>
-      <c r="F30" s="40"/>
+      <c r="E30" s="50">
+        <v>5</v>
+      </c>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,10 +1329,10 @@
       <c r="D32" s="21">
         <v>30</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="49">
         <v>30</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -1341,10 +1341,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="29"/>
-      <c r="E33" s="35">
+      <c r="E33" s="49">
         <v>30</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
@@ -1355,10 +1355,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="22"/>
-      <c r="E34" s="35">
+      <c r="E34" s="49">
         <v>5</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
@@ -1369,19 +1369,19 @@
         <v>21</v>
       </c>
       <c r="D35" s="22"/>
-      <c r="E35" s="35">
-        <v>20</v>
-      </c>
-      <c r="F35" s="35"/>
+      <c r="E35" s="49">
+        <v>5</v>
+      </c>
+      <c r="F35" s="49"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,10 +1395,10 @@
       <c r="D37" s="21">
         <v>10</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="47">
         <v>10</v>
       </c>
-      <c r="F37" s="32"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -1409,10 +1409,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="22">
-        <v>80</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+        <v>110</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -1423,10 +1423,10 @@
         <v>32</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="32">
+      <c r="E39" s="47">
         <v>5</v>
       </c>
-      <c r="F39" s="32"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -1437,18 +1437,18 @@
         <v>34</v>
       </c>
       <c r="D40" s="22"/>
-      <c r="E40" s="32">
-        <v>20</v>
-      </c>
-      <c r="F40" s="32"/>
+      <c r="E40" s="47">
+        <v>5</v>
+      </c>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -1461,10 +1461,10 @@
       <c r="D42" s="20">
         <v>10</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="46">
         <v>10</v>
       </c>
-      <c r="F42" s="36"/>
+      <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -1475,10 +1475,10 @@
         <v>29</v>
       </c>
       <c r="D43" s="20"/>
-      <c r="E43" s="36">
+      <c r="E43" s="46">
         <v>30</v>
       </c>
-      <c r="F43" s="36"/>
+      <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
@@ -1489,10 +1489,10 @@
         <v>33</v>
       </c>
       <c r="D44" s="20"/>
-      <c r="E44" s="36">
+      <c r="E44" s="46">
         <v>5</v>
       </c>
-      <c r="F44" s="36"/>
+      <c r="F44" s="46"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
@@ -1502,18 +1502,18 @@
         <v>34</v>
       </c>
       <c r="D45" s="20"/>
-      <c r="E45" s="36">
-        <v>20</v>
-      </c>
-      <c r="F45" s="36"/>
+      <c r="E45" s="46">
+        <v>5</v>
+      </c>
+      <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
@@ -1522,11 +1522,11 @@
       <c r="C47" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="20">
-        <v>60</v>
-      </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="44">
+        <v>20</v>
+      </c>
+      <c r="F47" s="44"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="9">
@@ -1536,10 +1536,10 @@
         <v>16</v>
       </c>
       <c r="D48" s="20"/>
-      <c r="E48" s="37">
-        <v>10</v>
-      </c>
-      <c r="F48" s="37"/>
+      <c r="E48" s="44">
+        <v>20</v>
+      </c>
+      <c r="F48" s="44"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
@@ -1549,10 +1549,12 @@
         <v>48</v>
       </c>
       <c r="D49" s="20">
-        <v>60</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="E49" s="44">
+        <v>20</v>
+      </c>
+      <c r="F49" s="44"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="9">
@@ -1562,10 +1564,10 @@
         <v>32</v>
       </c>
       <c r="D50" s="20"/>
-      <c r="E50" s="37">
+      <c r="E50" s="44">
         <v>5</v>
       </c>
-      <c r="F50" s="37"/>
+      <c r="F50" s="44"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
@@ -1575,18 +1577,18 @@
         <v>35</v>
       </c>
       <c r="D51" s="20"/>
-      <c r="E51" s="37">
-        <v>20</v>
-      </c>
-      <c r="F51" s="37"/>
+      <c r="E51" s="44">
+        <v>5</v>
+      </c>
+      <c r="F51" s="44"/>
     </row>
     <row r="52" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
@@ -1595,11 +1597,11 @@
       <c r="C53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="20">
-        <v>60</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="43">
+        <v>20</v>
+      </c>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
@@ -1609,10 +1611,10 @@
         <v>16</v>
       </c>
       <c r="D54" s="20"/>
-      <c r="E54" s="38">
-        <v>10</v>
-      </c>
-      <c r="F54" s="38"/>
+      <c r="E54" s="43">
+        <v>20</v>
+      </c>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
@@ -1622,10 +1624,12 @@
         <v>18</v>
       </c>
       <c r="D55" s="20">
-        <v>60</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="E55" s="43">
+        <v>20</v>
+      </c>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
@@ -1635,10 +1639,10 @@
         <v>32</v>
       </c>
       <c r="D56" s="20"/>
-      <c r="E56" s="38">
+      <c r="E56" s="43">
         <v>5</v>
       </c>
-      <c r="F56" s="38"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
@@ -1648,10 +1652,10 @@
         <v>34</v>
       </c>
       <c r="D57" s="20"/>
-      <c r="E57" s="38">
-        <v>20</v>
-      </c>
-      <c r="F57" s="38"/>
+      <c r="E57" s="43">
+        <v>5</v>
+      </c>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -1661,22 +1665,41 @@
       <c r="C58" s="23"/>
       <c r="D58" s="23">
         <f>SUM(D7:D57)</f>
-        <v>675</v>
-      </c>
-      <c r="E58" s="39">
+        <v>595</v>
+      </c>
+      <c r="E58" s="45">
         <f>SUM(E7:E57)</f>
-        <v>665</v>
-      </c>
-      <c r="F58" s="39"/>
+        <v>590</v>
+      </c>
+      <c r="F58" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B52:E52"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
@@ -1692,39 +1715,20 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E39:F39"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
